--- a/data/edu_comp_en.xlsx
+++ b/data/edu_comp_en.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\JDL_CV-main\ENG\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\JDL_CV\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FA86CD6-B061-4D4E-AAC8-28A0E9A4A5A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E9B9AD7-2F3E-4AD6-B973-370A8E415931}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>what</t>
   </si>
@@ -55,10 +55,7 @@
     <t>Dundee, UK</t>
   </si>
   <si>
-    <t>Certificate: https://www.coursera.org/account/accomplishments/verify/DC7ULMJ3CZWM</t>
-  </si>
-  <si>
-    <t>GPA: 97/100</t>
+    <t>GPA: 97/100 (see \href{https://www.coursera.org/account/accomplishments/verify/DC7ULMJ3CZWM}{certificate})</t>
   </si>
 </sst>
 </file>
@@ -899,10 +896,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -945,25 +942,20 @@
         <v>6</v>
       </c>
       <c r="E2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A3" t="s">
         <v>8</v>
       </c>
-      <c r="B4">
+      <c r="B3">
         <v>2012</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C3" t="s">
         <v>7</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D3" t="s">
         <v>10</v>
       </c>
     </row>
